--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F1462-8BB0-4C9E-BB67-57DED6ADA87A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE9D267-E5B7-4DF2-BD94-08270A3D8AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23196" yWindow="5268" windowWidth="23352" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -150,21 +150,6 @@
     <t>There is a visible skybox in the background.</t>
   </si>
   <si>
-    <t>The road uses a texture and houses uses two</t>
-  </si>
-  <si>
-    <t>The car moves along the road.</t>
-  </si>
-  <si>
-    <t>Houses, trees, lampposts, clocks, floors and cars</t>
-  </si>
-  <si>
-    <t>A car and ??? has been imported.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BoxGeometry (houses, floors), CylinderGeometry (lampposts, trees, houses) SphereGeometry, </t>
-  </si>
-  <si>
     <t>S1127947</t>
   </si>
   <si>
@@ -174,16 +159,46 @@
     <t>van Bokhorst</t>
   </si>
   <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Scholte</t>
-  </si>
-  <si>
     <t>Puja Buter-Fadte</t>
   </si>
   <si>
-    <t>Every geometry and model has their own class. Every function has comments to explain them. Every class and/or function is easily reusable.</t>
+    <t>We created a neighborhood where two cars pass by, one playing a song from their radio. Behind you is a forest, where an UFO has stolen a car that's moving up and down.</t>
+  </si>
+  <si>
+    <t>We make use of color, mapping, refractionRatio, side, opacity and transparent.</t>
+  </si>
+  <si>
+    <t>You can use WS to move forward/backward, AD to move left/right and QE to move up/down.</t>
+  </si>
+  <si>
+    <t>Houses, trees, lampposts, clock, floors, cars and an ufo.</t>
+  </si>
+  <si>
+    <t>BoxGeometry (houses, floors), CylinderGeometry (lampposts, trees, houses) SphereGeometry (trees), ConeGeometry(trees) and CircleGeometry (clock).</t>
+  </si>
+  <si>
+    <t>The road uses a texture, the floor uses a texture and houses uses two textures (one for the roof, and one for the box).</t>
+  </si>
+  <si>
+    <t>A car and an UFO model are imported.</t>
+  </si>
+  <si>
+    <t>The cars move along the road, one is being pulled up and down by the UFO.</t>
+  </si>
+  <si>
+    <t>Most of the geometry has their own class. Every model has their own class, so you can change anything very easily. Every function has comments to explain them. Every class and/or function is easily reusable.</t>
+  </si>
+  <si>
+    <t>The music of the car moves with the car, this car also dances. An UFO pulls a car up and down. All the non-imported models have a shadow and reflect the light in a cool way.</t>
+  </si>
+  <si>
+    <t>We calculate the movement in movement.js.</t>
+  </si>
+  <si>
+    <t>Julian Scholte</t>
+  </si>
+  <si>
+    <t>S1129557</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1050,8 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1064,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="33"/>
     </row>
@@ -1073,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -1084,17 +1099,17 @@
         <v>27</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
@@ -1102,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" s="31"/>
     </row>
@@ -1176,7 +1191,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="E18" s="3"/>
@@ -1194,24 +1211,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
       <c r="H20" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
       <c r="H21" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
@@ -1221,25 +1238,27 @@
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
       <c r="H22" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H23" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="9"/>
       <c r="H24" s="17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
@@ -1252,23 +1271,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
       <c r="H26" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="11"/>
@@ -1303,14 +1324,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="8"/>
       <c r="H32" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>21</v>
@@ -1322,16 +1343,20 @@
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="2:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:10" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10"/>
-      <c r="H34" s="18"/>
+      <c r="H34" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="J34" s="16" t="s">
         <v>20</v>
       </c>
@@ -1364,6 +1389,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1603,48 +1654,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1668,9 +1681,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE9D267-E5B7-4DF2-BD94-08270A3D8AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908495D1-40E6-456A-AAF4-1FF98759BE3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23196" yWindow="5268" windowWidth="23352" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68" yWindow="-68" windowWidth="28936" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Puja Buter-Fadte</t>
   </si>
   <si>
-    <t>We created a neighborhood where two cars pass by, one playing a song from their radio. Behind you is a forest, where an UFO has stolen a car that's moving up and down.</t>
-  </si>
-  <si>
     <t>We make use of color, mapping, refractionRatio, side, opacity and transparent.</t>
   </si>
   <si>
@@ -199,6 +196,22 @@
   </si>
   <si>
     <t>S1129557</t>
+  </si>
+  <si>
+    <r>
+      <t>We created a neighborhood where two cars pass by, one playing a song from their radio. Behind you is a forest, where an UFO has stolen a car that's moving up and down.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, which is why we have made a video that you can find in this project.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1050,8 +1063,8 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1099,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="20"/>
     </row>
@@ -1108,7 +1121,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="31"/>
     </row>
@@ -1182,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:10" ht="141.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1205,7 @@
       </c>
       <c r="F17" s="22"/>
       <c r="H17" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
@@ -1218,7 +1231,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
       <c r="H20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.45">
@@ -1228,7 +1241,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
       <c r="H21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
@@ -1238,7 +1251,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
       <c r="H22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1248,7 +1261,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
       <c r="H23" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -1258,7 +1271,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="9"/>
       <c r="H24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
@@ -1278,7 +1291,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
       <c r="H26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
@@ -1288,7 +1301,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
       <c r="H27" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1331,7 +1344,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="8"/>
       <c r="H32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>21</v>
@@ -1344,7 +1357,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="H33" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33" s="27"/>
     </row>
@@ -1355,7 +1368,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="10"/>
       <c r="H34" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>20</v>

--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908495D1-40E6-456A-AAF4-1FF98759BE3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8D8BF-2BA8-4195-91FA-F0F75B0CA3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68" yWindow="-68" windowWidth="28936" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, which is why we have made a video that you can find in this project.</t>
+      <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, which is why we have supplied a video that can be found in this project.</t>
     </r>
   </si>
 </sst>
@@ -715,7 +715,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1063,31 +1063,31 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.73046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.73046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.73046875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="2" width="2.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="12" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,25 +1163,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="141.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:10" ht="141.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1208,11 +1208,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,11 +1304,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="2:10" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1374,11 +1374,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1402,32 +1402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1667,10 +1641,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1694,21 +1706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8D8BF-2BA8-4195-91FA-F0F75B0CA3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C1AFE5-34DA-4655-9FAD-5533F39B08C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, which is why we have supplied a video that can be found in this project.</t>
+      <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, that is why we have supplied a video that shows the UFO.</t>
     </r>
   </si>
 </sst>
@@ -1064,7 +1064,7 @@
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,6 +1402,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1641,48 +1667,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1706,9 +1694,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\kill-your-neighbourhood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C1AFE5-34DA-4655-9FAD-5533F39B08C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24957413-FA67-4182-8146-9AFEEF49F6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation form" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>We make use of color, mapping, refractionRatio, side, opacity and transparent.</t>
   </si>
   <si>
-    <t>You can use WS to move forward/backward, AD to move left/right and QE to move up/down.</t>
-  </si>
-  <si>
     <t>Houses, trees, lampposts, clock, floors, cars and an ufo.</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
       </rPr>
       <t xml:space="preserve"> IMPORTANT: The UFO is only visible in firefox (make sure that in the about:config the privacy.file_unique_origin is on false!), due a bug with the loading of the textures. This is not something we can fix, that is why we have supplied a video that shows the UFO.</t>
     </r>
+  </si>
+  <si>
+    <t>You can use WS to move forward/backward, AD to move left/right and QE to move up/down. We use the PointerLockControls for this.</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1063,31 +1063,31 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.77734375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="2.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.796875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1107,25 +1107,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,25 +1163,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="141.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="141.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1205,14 +1205,14 @@
       </c>
       <c r="F17" s="22"/>
       <c r="H17" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1224,37 +1224,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
       <c r="H20" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
       <c r="H21" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
       <c r="H22" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,17 +1264,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="9"/>
       <c r="H24" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1284,31 +1284,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
       <c r="H26" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
       <c r="H27" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1337,48 +1337,48 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="8"/>
       <c r="H32" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="H33" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10"/>
       <c r="H34" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1402,32 +1402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1667,10 +1641,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1694,21 +1706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\kill-your-neighbourhood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24957413-FA67-4182-8146-9AFEEF49F6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310FD0BA-D62F-49F8-B196-AB7D2FC1BF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
